--- a/Desktop/MYSARAH/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
+++ b/Desktop/MYSARAH/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Desktop\MYSARAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73E36D75-08EC-456F-B606-C3B36D48CD2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85F4A2B-DE75-405B-B62A-8D3790504BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -939,13 +939,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -956,57 +955,23 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1017,23 +982,58 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1306,8 +1306,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1330,11 +1330,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="75" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="70" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="49"/>
@@ -1343,8 +1343,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1362,11 +1362,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="70" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="49"/>
@@ -1394,11 +1394,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="77">
+      <c r="D3" s="60"/>
+      <c r="E3" s="68">
         <v>5000</v>
       </c>
       <c r="F3" s="49"/>
@@ -1430,12 +1430,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1464,11 +1464,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="79">
+      <c r="D5" s="60"/>
+      <c r="E5" s="63">
         <v>22.4</v>
       </c>
       <c r="F5" s="49"/>
@@ -1496,11 +1496,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="79">
+      <c r="D6" s="62"/>
+      <c r="E6" s="63">
         <v>64</v>
       </c>
       <c r="F6" s="49"/>
@@ -1532,12 +1532,12 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="64">
         <v>23.313700000000001</v>
       </c>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="83"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1564,11 +1564,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="49"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1596,11 +1596,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="49"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1628,12 +1628,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="58">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0036</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="49"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1657,12 +1657,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1688,10 +1688,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="49"/>
       <c r="E12" s="8">
         <v>5000</v>
@@ -1723,7 +1723,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="49"/>
@@ -1757,10 +1757,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="85">
+      <c r="C14" s="56">
         <v>5002.08</v>
       </c>
-      <c r="D14" s="86"/>
+      <c r="D14" s="57"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>5020.0874880000001</v>
@@ -1792,10 +1792,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="85">
+      <c r="C15" s="56">
         <v>5004.55</v>
       </c>
-      <c r="D15" s="86"/>
+      <c r="D15" s="57"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>5022.5663800000002</v>
@@ -1827,10 +1827,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="85">
+      <c r="C16" s="56">
         <v>5006.32</v>
       </c>
-      <c r="D16" s="86"/>
+      <c r="D16" s="57"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>5024.3427519999996</v>
@@ -1862,10 +1862,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="85">
+      <c r="C17" s="56">
         <v>5003.37</v>
       </c>
-      <c r="D17" s="86"/>
+      <c r="D17" s="57"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>5021.3821319999997</v>
@@ -1897,10 +1897,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="85">
+      <c r="C18" s="56">
         <v>5003.3</v>
       </c>
-      <c r="D18" s="86"/>
+      <c r="D18" s="57"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>5021.3118800000002</v>
@@ -1932,10 +1932,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="85">
+      <c r="C19" s="56">
         <v>5008.32</v>
       </c>
-      <c r="D19" s="86"/>
+      <c r="D19" s="57"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>5026.3499519999996</v>
@@ -1967,10 +1967,10 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="85">
+      <c r="C20" s="56">
         <v>5004.76</v>
       </c>
-      <c r="D20" s="86"/>
+      <c r="D20" s="57"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
         <v>5022.7771360000006</v>
@@ -2002,10 +2002,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="85">
+      <c r="C21" s="56">
         <v>5003.6099999999997</v>
       </c>
-      <c r="D21" s="86"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>5021.6229960000001</v>
@@ -2037,10 +2037,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="85">
+      <c r="C22" s="56">
         <v>5006.54</v>
       </c>
-      <c r="D22" s="86"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>5024.5635440000005</v>
@@ -2072,10 +2072,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="85">
+      <c r="C23" s="56">
         <v>5005.8500000000004</v>
       </c>
-      <c r="D23" s="86"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>5023.8710600000004</v>
@@ -2107,7 +2107,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="54">
         <f>AVERAGE(C14:D23)</f>
         <v>5004.87</v>
       </c>
@@ -2198,10 +2198,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="49"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2231,7 +2231,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="54">
         <f>E24</f>
         <v>5022.8875319999997</v>
       </c>
@@ -2264,7 +2264,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="54">
         <f>STDEV(E14:E23)</f>
         <v>1.8910870777877264</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="55">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>0.45775063999999477</v>
       </c>
@@ -2330,7 +2330,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="55">
         <f>ABS((100*C29/C28))</f>
         <v>3.7649401180892828E-2</v>
       </c>
@@ -2363,7 +2363,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="50">
         <v>0.8</v>
       </c>
       <c r="D32" s="49"/>
@@ -2395,7 +2395,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="51">
         <v>0.3</v>
       </c>
       <c r="D33" s="49"/>
@@ -2427,7 +2427,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="53" t="str">
+      <c r="C34" s="52" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -2487,10 +2487,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="49"/>
       <c r="E36" s="21">
         <v>2500</v>
@@ -2522,7 +2522,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="49"/>
@@ -2906,7 +2906,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48" s="85">
         <f>AVERAGE(C38:D47)</f>
         <v>2507.0219999999999</v>
       </c>
@@ -2938,12 +2938,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2969,10 +2969,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="49"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3002,7 +3002,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="54">
         <f>E48</f>
         <v>2516.0472792000005</v>
       </c>
@@ -3035,7 +3035,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="52">
         <f>STDEV(E38:E47)</f>
         <v>4.8571862266873564</v>
       </c>
@@ -3068,7 +3068,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="55">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>0.64189116800002011</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="57">
+      <c r="C54" s="86">
         <f>ABS((100*C52/C51))</f>
         <v>0.19304828914946867</v>
       </c>
@@ -3134,7 +3134,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="58">
+      <c r="C55" s="50">
         <v>1.6</v>
       </c>
       <c r="D55" s="49"/>
@@ -3166,7 +3166,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="59">
+      <c r="C56" s="51">
         <v>0.6</v>
       </c>
       <c r="D56" s="49"/>
@@ -3198,7 +3198,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="53" t="str">
+      <c r="C57" s="52" t="str">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -3258,10 +3258,10 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="49"/>
       <c r="E59" s="8">
         <v>500</v>
@@ -3293,7 +3293,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="49"/>
@@ -3677,8 +3677,9 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="50">
-        <v>507</v>
+      <c r="C71" s="85">
+        <f>AVERAGE(C61:D70)</f>
+        <v>505.78399999999999</v>
       </c>
       <c r="D71" s="49"/>
       <c r="E71" s="24">
@@ -3739,10 +3740,10 @@
       <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="49"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3772,7 +3773,7 @@
       <c r="B74" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="55">
+      <c r="C74" s="54">
         <f>E71</f>
         <v>507.60482239999999</v>
       </c>
@@ -3805,7 +3806,7 @@
       <c r="B75" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="55">
+      <c r="C75" s="54">
         <f>STDEV(E61:E70)</f>
         <v>3.0120717015034653</v>
       </c>
@@ -3838,7 +3839,7 @@
       <c r="B76" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="56">
+      <c r="C76" s="55">
         <f>ABS((100*(C74-E59)/E59))</f>
         <v>1.5209644799999977</v>
       </c>
@@ -3871,7 +3872,7 @@
       <c r="B77" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="56">
+      <c r="C77" s="55">
         <f>ABS((100*C75/C74))</f>
         <v>0.593389102818631</v>
       </c>
@@ -3904,7 +3905,7 @@
       <c r="B78" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="58">
+      <c r="C78" s="50">
         <v>8</v>
       </c>
       <c r="D78" s="49"/>
@@ -3936,7 +3937,7 @@
       <c r="B79" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="59">
+      <c r="C79" s="51">
         <v>3</v>
       </c>
       <c r="D79" s="49"/>
@@ -3968,7 +3969,7 @@
       <c r="B80" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="53" t="str">
+      <c r="C80" s="52" t="str">
         <f>IF(AND(C77&lt;=C79,C76&lt;=C78),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -4028,15 +4029,15 @@
       <c r="A82" s="10">
         <v>8</v>
       </c>
-      <c r="B82" s="72" t="s">
+      <c r="B82" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="73" t="s">
+      <c r="C82" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="63"/>
+      <c r="D82" s="79"/>
+      <c r="E82" s="79"/>
+      <c r="F82" s="73"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -4060,11 +4061,11 @@
     </row>
     <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
-      <c r="B83" s="70"/>
-      <c r="C83" s="52"/>
-      <c r="D83" s="52"/>
-      <c r="E83" s="52"/>
-      <c r="F83" s="65"/>
+      <c r="B83" s="82"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+      <c r="E83" s="60"/>
+      <c r="F83" s="75"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -4088,11 +4089,11 @@
     </row>
     <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
-      <c r="B84" s="71"/>
-      <c r="C84" s="67"/>
-      <c r="D84" s="67"/>
-      <c r="E84" s="67"/>
-      <c r="F84" s="68"/>
+      <c r="B84" s="83"/>
+      <c r="C84" s="62"/>
+      <c r="D84" s="62"/>
+      <c r="E84" s="62"/>
+      <c r="F84" s="77"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -4143,15 +4144,15 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="53" t="s">
+      <c r="A86" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="54"/>
+      <c r="B86" s="53"/>
       <c r="C86" s="49"/>
       <c r="D86" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E86" s="60" t="s">
+      <c r="E86" s="80" t="s">
         <v>48</v>
       </c>
       <c r="F86" s="49"/>
@@ -4177,18 +4178,18 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="61" t="s">
+      <c r="A87" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="62"/>
-      <c r="C87" s="63"/>
-      <c r="D87" s="69" t="s">
+      <c r="B87" s="79"/>
+      <c r="C87" s="73"/>
+      <c r="D87" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="61" t="s">
+      <c r="E87" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="63"/>
+      <c r="F87" s="73"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -4211,12 +4212,12 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="64"/>
-      <c r="B88" s="52"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="70"/>
-      <c r="E88" s="64"/>
-      <c r="F88" s="65"/>
+      <c r="A88" s="74"/>
+      <c r="B88" s="60"/>
+      <c r="C88" s="75"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="75"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -4239,12 +4240,12 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="64"/>
-      <c r="B89" s="52"/>
-      <c r="C89" s="65"/>
-      <c r="D89" s="70"/>
-      <c r="E89" s="64"/>
-      <c r="F89" s="65"/>
+      <c r="A89" s="74"/>
+      <c r="B89" s="60"/>
+      <c r="C89" s="75"/>
+      <c r="D89" s="82"/>
+      <c r="E89" s="74"/>
+      <c r="F89" s="75"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -4267,12 +4268,12 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="64"/>
-      <c r="B90" s="52"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="70"/>
-      <c r="E90" s="64"/>
-      <c r="F90" s="65"/>
+      <c r="A90" s="74"/>
+      <c r="B90" s="60"/>
+      <c r="C90" s="75"/>
+      <c r="D90" s="82"/>
+      <c r="E90" s="74"/>
+      <c r="F90" s="75"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -4295,12 +4296,12 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="64"/>
-      <c r="B91" s="52"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="70"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="65"/>
+      <c r="A91" s="74"/>
+      <c r="B91" s="60"/>
+      <c r="C91" s="75"/>
+      <c r="D91" s="82"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="75"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4323,12 +4324,12 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="64"/>
-      <c r="B92" s="52"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="70"/>
-      <c r="E92" s="64"/>
-      <c r="F92" s="65"/>
+      <c r="A92" s="74"/>
+      <c r="B92" s="60"/>
+      <c r="C92" s="75"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="74"/>
+      <c r="F92" s="75"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -4351,12 +4352,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="64"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="65"/>
+      <c r="A93" s="74"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="75"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4379,12 +4380,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="64"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="65"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="75"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -4407,12 +4408,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="66"/>
-      <c r="B95" s="67"/>
-      <c r="C95" s="68"/>
-      <c r="D95" s="71"/>
-      <c r="E95" s="66"/>
-      <c r="F95" s="68"/>
+      <c r="A95" s="76"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="77"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="76"/>
+      <c r="F95" s="77"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -29776,6 +29777,85 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C95"/>
+    <mergeCell ref="D87:D95"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="E87:F95"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:F84"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
@@ -29785,85 +29865,6 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E87:F95"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:F84"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C95"/>
-    <mergeCell ref="D87:D95"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29904,11 +29905,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74" t="s">
+      <c r="C1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="75" t="s">
+      <c r="D1" s="60"/>
+      <c r="E1" s="70" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="49"/>
@@ -29917,8 +29918,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="52"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="60"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -29936,11 +29937,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="74" t="s">
+      <c r="C2" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="52"/>
-      <c r="E2" s="75" t="s">
+      <c r="D2" s="60"/>
+      <c r="E2" s="70" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="49"/>
@@ -29968,11 +29969,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="77">
+      <c r="D3" s="60"/>
+      <c r="E3" s="68">
         <v>5000</v>
       </c>
       <c r="F3" s="49"/>
@@ -30004,12 +30005,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="52"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -30038,11 +30039,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="78" t="s">
+      <c r="C5" s="69" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="79">
+      <c r="D5" s="60"/>
+      <c r="E5" s="63">
         <v>21.3</v>
       </c>
       <c r="F5" s="49"/>
@@ -30070,11 +30071,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="80" t="s">
+      <c r="C6" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="67"/>
-      <c r="E6" s="79">
+      <c r="D6" s="62"/>
+      <c r="E6" s="63">
         <v>61.9</v>
       </c>
       <c r="F6" s="49"/>
@@ -30106,11 +30107,11 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="59">
+      <c r="C7" s="51">
         <v>22.209499999999998</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="49"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -30138,11 +30139,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="49"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -30170,11 +30171,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="51" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="49"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -30202,12 +30203,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="84">
+      <c r="C10" s="58">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0033000000000001</v>
       </c>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="49"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -30231,12 +30232,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
+      <c r="A11" s="59"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -30262,10 +30263,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="53"/>
       <c r="D12" s="49"/>
       <c r="E12" s="31">
         <v>5000</v>
@@ -30297,7 +30298,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="53" t="s">
+      <c r="C13" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="49"/>
@@ -30331,10 +30332,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="89">
+      <c r="C14" s="87">
         <v>5009.7</v>
       </c>
-      <c r="D14" s="90"/>
+      <c r="D14" s="88"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>5026.2320100000006</v>
@@ -30366,10 +30367,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="89">
+      <c r="C15" s="87">
         <v>5003.3</v>
       </c>
-      <c r="D15" s="90"/>
+      <c r="D15" s="88"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>5019.8108900000007</v>
@@ -30401,10 +30402,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="89">
+      <c r="C16" s="87">
         <v>5003.8</v>
       </c>
-      <c r="D16" s="90"/>
+      <c r="D16" s="88"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>5020.3125400000008</v>
@@ -30436,10 +30437,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="89">
+      <c r="C17" s="87">
         <v>5001.8</v>
       </c>
-      <c r="D17" s="90"/>
+      <c r="D17" s="88"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>5018.3059400000002</v>
@@ -30471,10 +30472,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="89">
+      <c r="C18" s="87">
         <v>5003.8999999999996</v>
       </c>
-      <c r="D18" s="90"/>
+      <c r="D18" s="88"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>5020.4128700000001</v>
@@ -30508,10 +30509,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="89">
+      <c r="C19" s="87">
         <v>5000.5</v>
       </c>
-      <c r="D19" s="90"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>5017.0016500000002</v>
@@ -30543,10 +30544,10 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="89">
+      <c r="C20" s="87">
         <v>5005.3</v>
       </c>
-      <c r="D20" s="90"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
         <v>5021.8174900000004</v>
@@ -30578,10 +30579,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="89">
+      <c r="C21" s="87">
         <v>5004.6000000000004</v>
       </c>
-      <c r="D21" s="90"/>
+      <c r="D21" s="88"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>5021.1151800000007</v>
@@ -30613,10 +30614,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="89">
+      <c r="C22" s="87">
         <v>5009.3999999999996</v>
       </c>
-      <c r="D22" s="90"/>
+      <c r="D22" s="88"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>5025.93102</v>
@@ -30648,10 +30649,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="89">
+      <c r="C23" s="87">
         <v>5007.8</v>
       </c>
-      <c r="D23" s="90"/>
+      <c r="D23" s="88"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>5024.3257400000002</v>
@@ -30683,7 +30684,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="55">
+      <c r="C24" s="54">
         <f>AVERAGE(C14:D23)</f>
         <v>5005.01</v>
       </c>
@@ -30774,10 +30775,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="49"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -30807,7 +30808,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="55">
+      <c r="C28" s="54">
         <f>E24</f>
         <v>5021.5265330000011</v>
       </c>
@@ -30840,7 +30841,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="55">
+      <c r="C29" s="54">
         <f>STDEV(E14:E23)</f>
         <v>3.0936258347053909</v>
       </c>
@@ -30873,7 +30874,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="56">
+      <c r="C30" s="55">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>0.43053066000002216</v>
       </c>
@@ -30906,7 +30907,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="56">
+      <c r="C31" s="55">
         <f>ABS((100*C29/C28))</f>
         <v>6.1607278471496434E-2</v>
       </c>
@@ -30939,7 +30940,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="58">
+      <c r="C32" s="50">
         <v>0.8</v>
       </c>
       <c r="D32" s="49"/>
@@ -30971,7 +30972,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="59">
+      <c r="C33" s="51">
         <v>0.3</v>
       </c>
       <c r="D33" s="49"/>
@@ -31003,7 +31004,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="53" t="str">
+      <c r="C34" s="52" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31063,10 +31064,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="49"/>
       <c r="E36" s="32">
         <v>2500</v>
@@ -31098,7 +31099,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="53" t="s">
+      <c r="C37" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="49"/>
@@ -31482,7 +31483,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="50">
+      <c r="C48" s="85">
         <f>AVERAGE(C38:D47)</f>
         <v>2505.59</v>
       </c>
@@ -31514,12 +31515,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
+      <c r="A49" s="59"/>
+      <c r="B49" s="60"/>
+      <c r="C49" s="60"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="60"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -31545,10 +31546,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="53" t="s">
+      <c r="B50" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="53"/>
       <c r="D50" s="49"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -31578,7 +31579,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="55">
+      <c r="C51" s="54">
         <f>E48</f>
         <v>2513.8584470000001</v>
       </c>
@@ -31611,7 +31612,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="53">
+      <c r="C52" s="52">
         <f>STDEV(E38:E47)</f>
         <v>2.8910402817980909</v>
       </c>
@@ -31644,7 +31645,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="56">
+      <c r="C53" s="55">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>0.55433788000000273</v>
       </c>
@@ -31677,7 +31678,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="57">
+      <c r="C54" s="86">
         <f>ABS((100*C52/C51))</f>
         <v>0.1150040999821694</v>
       </c>
@@ -31710,7 +31711,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="58">
+      <c r="C55" s="50">
         <v>1.6</v>
       </c>
       <c r="D55" s="49"/>
@@ -31742,7 +31743,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="59">
+      <c r="C56" s="51">
         <v>0.6</v>
       </c>
       <c r="D56" s="49"/>
@@ -31774,7 +31775,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="53" t="str">
+      <c r="C57" s="52" t="str">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31834,12 +31835,12 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="80" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="53"/>
       <c r="D59" s="49"/>
-      <c r="E59" s="87">
+      <c r="E59" s="90">
         <v>500</v>
       </c>
       <c r="F59" s="49"/>
@@ -31869,7 +31870,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="53" t="s">
+      <c r="C60" s="52" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="49"/>
@@ -32285,7 +32286,7 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="50">
+      <c r="C71" s="85">
         <f>AVERAGE(C61:D70)</f>
         <v>506.392</v>
       </c>
@@ -32351,10 +32352,10 @@
       <c r="A73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="53" t="s">
+      <c r="B73" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="54"/>
+      <c r="C73" s="53"/>
       <c r="D73" s="49"/>
       <c r="E73" s="7"/>
       <c r="F73" s="3"/>
@@ -32384,7 +32385,7 @@
       <c r="B74" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="88"/>
+      <c r="C74" s="89"/>
       <c r="D74" s="49"/>
       <c r="E74" s="7"/>
       <c r="F74" s="3"/>
@@ -32414,7 +32415,7 @@
       <c r="B75" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="85"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="49"/>
       <c r="E75" s="7"/>
       <c r="F75" s="3"/>
@@ -32444,7 +32445,7 @@
       <c r="B76" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76" s="54">
         <f>C75*C10</f>
         <v>0</v>
       </c>
@@ -32477,7 +32478,7 @@
       <c r="B77" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="55">
+      <c r="C77" s="54">
         <f>ABS(E70-C76)/10</f>
         <v>50.938544300000004</v>
       </c>
@@ -32509,10 +32510,10 @@
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="53" t="s">
+      <c r="B78" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="54"/>
+      <c r="C78" s="53"/>
       <c r="D78" s="49"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -32542,7 +32543,7 @@
       <c r="B79" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="55">
+      <c r="C79" s="54">
         <f>F71</f>
         <v>559.00163790000011</v>
       </c>
@@ -32575,7 +32576,7 @@
       <c r="B80" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="55">
+      <c r="C80" s="54">
         <f>STDEV(F61:F70)</f>
         <v>1.6198163793828375</v>
       </c>
@@ -32608,7 +32609,7 @@
       <c r="B81" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="56">
+      <c r="C81" s="55">
         <f>ABS((100*(C79-E59)/E59))</f>
         <v>11.800327580000021</v>
       </c>
@@ -32641,7 +32642,7 @@
       <c r="B82" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="56">
+      <c r="C82" s="55">
         <f>ABS((100*C80/C79))</f>
         <v>0.28976952294236508</v>
       </c>
@@ -32674,7 +32675,7 @@
       <c r="B83" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="58">
+      <c r="C83" s="50">
         <v>8</v>
       </c>
       <c r="D83" s="49"/>
@@ -32706,7 +32707,7 @@
       <c r="B84" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="59">
+      <c r="C84" s="51">
         <v>3</v>
       </c>
       <c r="D84" s="49"/>
@@ -32738,7 +32739,7 @@
       <c r="B85" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="53" t="str">
+      <c r="C85" s="52" t="str">
         <f>IF(AND(C82&lt;=C84,C81&lt;=C83),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
@@ -32798,15 +32799,15 @@
       <c r="A87" s="10">
         <v>8</v>
       </c>
-      <c r="B87" s="72" t="s">
+      <c r="B87" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="73" t="s">
+      <c r="C87" s="78" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="62"/>
-      <c r="F87" s="63"/>
+      <c r="D87" s="79"/>
+      <c r="E87" s="79"/>
+      <c r="F87" s="73"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -32830,11 +32831,11 @@
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
-      <c r="B88" s="70"/>
-      <c r="C88" s="52"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="52"/>
-      <c r="F88" s="65"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="60"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="75"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -32858,11 +32859,11 @@
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
-      <c r="B89" s="71"/>
-      <c r="C89" s="67"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="68"/>
+      <c r="B89" s="83"/>
+      <c r="C89" s="62"/>
+      <c r="D89" s="62"/>
+      <c r="E89" s="62"/>
+      <c r="F89" s="77"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -32913,15 +32914,15 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="53" t="s">
+      <c r="A91" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="54"/>
+      <c r="B91" s="53"/>
       <c r="C91" s="49"/>
       <c r="D91" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="60" t="s">
+      <c r="E91" s="80" t="s">
         <v>48</v>
       </c>
       <c r="F91" s="49"/>
@@ -32947,18 +32948,18 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="61" t="s">
+      <c r="A92" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="62"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="69" t="s">
+      <c r="B92" s="79"/>
+      <c r="C92" s="73"/>
+      <c r="D92" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="61" t="s">
+      <c r="E92" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="F92" s="63"/>
+      <c r="F92" s="73"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -32981,12 +32982,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="64"/>
-      <c r="B93" s="52"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="70"/>
-      <c r="E93" s="64"/>
-      <c r="F93" s="65"/>
+      <c r="A93" s="74"/>
+      <c r="B93" s="60"/>
+      <c r="C93" s="75"/>
+      <c r="D93" s="82"/>
+      <c r="E93" s="74"/>
+      <c r="F93" s="75"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -33009,12 +33010,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="64"/>
-      <c r="B94" s="52"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="65"/>
+      <c r="A94" s="74"/>
+      <c r="B94" s="60"/>
+      <c r="C94" s="75"/>
+      <c r="D94" s="82"/>
+      <c r="E94" s="74"/>
+      <c r="F94" s="75"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -33037,12 +33038,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="64"/>
-      <c r="B95" s="52"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="70"/>
-      <c r="E95" s="64"/>
-      <c r="F95" s="65"/>
+      <c r="A95" s="74"/>
+      <c r="B95" s="60"/>
+      <c r="C95" s="75"/>
+      <c r="D95" s="82"/>
+      <c r="E95" s="74"/>
+      <c r="F95" s="75"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -33065,12 +33066,12 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="64"/>
-      <c r="B96" s="52"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="70"/>
-      <c r="E96" s="64"/>
-      <c r="F96" s="65"/>
+      <c r="A96" s="74"/>
+      <c r="B96" s="60"/>
+      <c r="C96" s="75"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="75"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -33093,12 +33094,12 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="64"/>
-      <c r="B97" s="52"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="70"/>
-      <c r="E97" s="64"/>
-      <c r="F97" s="65"/>
+      <c r="A97" s="74"/>
+      <c r="B97" s="60"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="82"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="75"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -33121,12 +33122,12 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="64"/>
-      <c r="B98" s="52"/>
-      <c r="C98" s="65"/>
-      <c r="D98" s="70"/>
-      <c r="E98" s="64"/>
-      <c r="F98" s="65"/>
+      <c r="A98" s="74"/>
+      <c r="B98" s="60"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="82"/>
+      <c r="E98" s="74"/>
+      <c r="F98" s="75"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -33149,12 +33150,12 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="64"/>
-      <c r="B99" s="52"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="70"/>
-      <c r="E99" s="64"/>
-      <c r="F99" s="65"/>
+      <c r="A99" s="74"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="75"/>
+      <c r="D99" s="82"/>
+      <c r="E99" s="74"/>
+      <c r="F99" s="75"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -33177,12 +33178,12 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="66"/>
-      <c r="B100" s="67"/>
-      <c r="C100" s="68"/>
-      <c r="D100" s="71"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="68"/>
+      <c r="A100" s="76"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="77"/>
+      <c r="D100" s="83"/>
+      <c r="E100" s="76"/>
+      <c r="F100" s="77"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -58406,55 +58407,41 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
     <mergeCell ref="A92:C100"/>
     <mergeCell ref="D92:D100"/>
     <mergeCell ref="E92:F100"/>
@@ -58465,41 +58452,55 @@
     <mergeCell ref="C87:F89"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="E91:F91"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59803,7 +59804,7 @@
       <c r="B16" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="43"/>
       <c r="E16" s="44" t="s">
         <v>69</v>
@@ -59818,7 +59819,7 @@
       <c r="B18" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="60"/>
       <c r="D18" s="43"/>
       <c r="E18" s="44" t="s">
         <v>69</v>
@@ -59833,7 +59834,7 @@
       <c r="B20" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="60"/>
       <c r="D20" s="46"/>
       <c r="E20" s="41" t="s">
         <v>72</v>
@@ -59843,14 +59844,14 @@
       <c r="B21" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="60"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="60"/>
       <c r="D23" s="47" t="e">
         <f>D16/D18*D20</f>
         <v>#DIV/0!</v>
@@ -59863,13 +59864,13 @@
       <c r="B24" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="52"/>
+      <c r="C24" s="60"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="52"/>
+      <c r="C25" s="60"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Desktop/MYSARAH/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
+++ b/Desktop/MYSARAH/MIKROPIPET TEMPLATE 2024 - UPM034A & UPM034B dan ACV 5000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gunasama\Desktop\MYSARAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85F4A2B-DE75-405B-B62A-8D3790504BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B0B357-502F-4859-AEA7-82E40FA6F5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -939,12 +939,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -955,23 +956,57 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -982,58 +1017,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1306,8 +1306,8 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H72" sqref="H72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1330,11 +1330,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="75" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="49"/>
@@ -1343,8 +1343,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="60"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -1362,11 +1362,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="75" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="49"/>
@@ -1394,11 +1394,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="68">
+      <c r="D3" s="52"/>
+      <c r="E3" s="77">
         <v>5000</v>
       </c>
       <c r="F3" s="49"/>
@@ -1430,12 +1430,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -1464,12 +1464,12 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="63">
-        <v>22.4</v>
+      <c r="D5" s="52"/>
+      <c r="E5" s="79">
+        <v>22.8</v>
       </c>
       <c r="F5" s="49"/>
       <c r="G5" s="3"/>
@@ -1496,11 +1496,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63">
+      <c r="D6" s="67"/>
+      <c r="E6" s="79">
         <v>64</v>
       </c>
       <c r="F6" s="49"/>
@@ -1532,12 +1532,12 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="64">
-        <v>23.313700000000001</v>
+      <c r="C7" s="81">
+        <v>23.814900000000002</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="66"/>
+      <c r="D7" s="82"/>
+      <c r="E7" s="82"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -1564,11 +1564,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="49"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -1596,11 +1596,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="49"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -1628,12 +1628,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="84">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
-        <v>1.0036</v>
+        <v>1.0038</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="49"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -1657,12 +1657,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -1688,10 +1688,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="49"/>
       <c r="E12" s="8">
         <v>5000</v>
@@ -1723,7 +1723,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="49"/>
@@ -1757,13 +1757,13 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="56">
-        <v>5002.08</v>
+      <c r="C14" s="85">
+        <v>5000.2700000000004</v>
       </c>
-      <c r="D14" s="57"/>
+      <c r="D14" s="86"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
-        <v>5020.0874880000001</v>
+        <v>5019.2710260000003</v>
       </c>
       <c r="F14" s="16"/>
       <c r="G14" s="3"/>
@@ -1792,13 +1792,13 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="56">
-        <v>5004.55</v>
+      <c r="C15" s="85">
+        <v>4999.3500000000004</v>
       </c>
-      <c r="D15" s="57"/>
+      <c r="D15" s="86"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
-        <v>5022.5663800000002</v>
+        <v>5018.3475300000009</v>
       </c>
       <c r="F15" s="16"/>
       <c r="G15" s="3"/>
@@ -1827,13 +1827,13 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="56">
-        <v>5006.32</v>
+      <c r="C16" s="85">
+        <v>4993.51</v>
       </c>
-      <c r="D16" s="57"/>
+      <c r="D16" s="86"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
-        <v>5024.3427519999996</v>
+        <v>5012.4853380000004</v>
       </c>
       <c r="F16" s="16"/>
       <c r="G16" s="3"/>
@@ -1862,13 +1862,13 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="56">
-        <v>5003.37</v>
+      <c r="C17" s="85">
+        <v>5000.59</v>
       </c>
-      <c r="D17" s="57"/>
+      <c r="D17" s="86"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
-        <v>5021.3821319999997</v>
+        <v>5019.5922420000006</v>
       </c>
       <c r="F17" s="16"/>
       <c r="G17" s="3"/>
@@ -1897,13 +1897,13 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="56">
-        <v>5003.3</v>
+      <c r="C18" s="85">
+        <v>4998.37</v>
       </c>
-      <c r="D18" s="57"/>
+      <c r="D18" s="86"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
-        <v>5021.3118800000002</v>
+        <v>5017.3638060000003</v>
       </c>
       <c r="F18" s="16"/>
       <c r="G18" s="3"/>
@@ -1932,13 +1932,13 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="56">
-        <v>5008.32</v>
+      <c r="C19" s="85">
+        <v>5007.03</v>
       </c>
-      <c r="D19" s="57"/>
+      <c r="D19" s="86"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
-        <v>5026.3499519999996</v>
+        <v>5026.0567140000003</v>
       </c>
       <c r="F19" s="16"/>
       <c r="G19" s="3"/>
@@ -1967,13 +1967,13 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="56">
-        <v>5004.76</v>
+      <c r="C20" s="85">
+        <v>5006.82</v>
       </c>
-      <c r="D20" s="57"/>
+      <c r="D20" s="86"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
-        <v>5022.7771360000006</v>
+        <v>5025.8459160000002</v>
       </c>
       <c r="F20" s="16"/>
       <c r="G20" s="3"/>
@@ -2002,13 +2002,13 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="56">
-        <v>5003.6099999999997</v>
+      <c r="C21" s="85">
+        <v>4999.1000000000004</v>
       </c>
-      <c r="D21" s="57"/>
+      <c r="D21" s="86"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
-        <v>5021.6229960000001</v>
+        <v>5018.0965800000004</v>
       </c>
       <c r="F21" s="16"/>
       <c r="G21" s="3"/>
@@ -2037,13 +2037,13 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="56">
-        <v>5006.54</v>
+      <c r="C22" s="85">
+        <v>5005.82</v>
       </c>
-      <c r="D22" s="57"/>
+      <c r="D22" s="86"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
-        <v>5024.5635440000005</v>
+        <v>5024.8421159999998</v>
       </c>
       <c r="F22" s="16"/>
       <c r="G22" s="3"/>
@@ -2072,13 +2072,13 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="56">
-        <v>5005.8500000000004</v>
+      <c r="C23" s="85">
+        <v>4997.3100000000004</v>
       </c>
-      <c r="D23" s="57"/>
+      <c r="D23" s="86"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
-        <v>5023.8710600000004</v>
+        <v>5016.2997780000005</v>
       </c>
       <c r="F23" s="16"/>
       <c r="G23" s="3"/>
@@ -2107,14 +2107,14 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="55">
         <f>AVERAGE(C14:D23)</f>
-        <v>5004.87</v>
+        <v>5000.817</v>
       </c>
       <c r="D24" s="49"/>
       <c r="E24" s="15">
         <f>AVERAGE(E14:E23)</f>
-        <v>5022.8875319999997</v>
+        <v>5019.8201046000004</v>
       </c>
       <c r="F24" s="16"/>
       <c r="G24" s="3"/>
@@ -2198,10 +2198,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="49"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -2231,9 +2231,9 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="55">
         <f>E24</f>
-        <v>5022.8875319999997</v>
+        <v>5019.8201046000004</v>
       </c>
       <c r="D28" s="49"/>
       <c r="E28" s="3"/>
@@ -2264,9 +2264,9 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="55">
         <f>STDEV(E14:E23)</f>
-        <v>1.8910870777877264</v>
+        <v>4.4490151628146108</v>
       </c>
       <c r="D29" s="49"/>
       <c r="E29" s="3"/>
@@ -2297,9 +2297,9 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="56">
         <f>ABS((100*(C28-E12)/E12))</f>
-        <v>0.45775063999999477</v>
+        <v>0.39640209200000753</v>
       </c>
       <c r="D30" s="49"/>
       <c r="E30" s="3"/>
@@ -2330,9 +2330,9 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="56">
         <f>ABS((100*C29/C28))</f>
-        <v>3.7649401180892828E-2</v>
+        <v>8.8628976140752089E-2</v>
       </c>
       <c r="D31" s="49"/>
       <c r="E31" s="3"/>
@@ -2363,7 +2363,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="58">
         <v>0.8</v>
       </c>
       <c r="D32" s="49"/>
@@ -2395,7 +2395,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="59">
         <v>0.3</v>
       </c>
       <c r="D33" s="49"/>
@@ -2427,7 +2427,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="52" t="str">
+      <c r="C34" s="53" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -2487,10 +2487,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="53"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="49"/>
       <c r="E36" s="21">
         <v>2500</v>
@@ -2522,7 +2522,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="49"/>
@@ -2556,13 +2556,11 @@
       <c r="B38" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C38" s="48">
-        <v>2504.36</v>
-      </c>
+      <c r="C38" s="48"/>
       <c r="D38" s="49"/>
       <c r="E38" s="24">
         <f>C38*C10</f>
-        <v>2513.3756960000001</v>
+        <v>0</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="3"/>
@@ -2591,13 +2589,11 @@
       <c r="B39" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="48">
-        <v>2518.1799999999998</v>
-      </c>
+      <c r="C39" s="48"/>
       <c r="D39" s="49"/>
       <c r="E39" s="24">
         <f>C39*C10</f>
-        <v>2527.2454480000001</v>
+        <v>0</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="3"/>
@@ -2626,13 +2622,11 @@
       <c r="B40" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="48">
-        <v>2501.2600000000002</v>
-      </c>
+      <c r="C40" s="48"/>
       <c r="D40" s="49"/>
       <c r="E40" s="24">
         <f>C40*C10</f>
-        <v>2510.2645360000001</v>
+        <v>0</v>
       </c>
       <c r="F40" s="25"/>
       <c r="G40" s="3"/>
@@ -2661,13 +2655,11 @@
       <c r="B41" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C41" s="48">
-        <v>2501.4699999999998</v>
-      </c>
+      <c r="C41" s="48"/>
       <c r="D41" s="49"/>
       <c r="E41" s="24">
         <f>C41*C10</f>
-        <v>2510.4752920000001</v>
+        <v>0</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="3"/>
@@ -2696,13 +2688,11 @@
       <c r="B42" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C42" s="48">
-        <v>2507.15</v>
-      </c>
+      <c r="C42" s="48"/>
       <c r="D42" s="49"/>
       <c r="E42" s="24">
         <f>C42*C10</f>
-        <v>2516.1757400000001</v>
+        <v>0</v>
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="3"/>
@@ -2731,13 +2721,11 @@
       <c r="B43" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="48">
-        <v>2506.0300000000002</v>
-      </c>
+      <c r="C43" s="48"/>
       <c r="D43" s="49"/>
       <c r="E43" s="24">
         <f>C43*C10</f>
-        <v>2515.0517080000004</v>
+        <v>0</v>
       </c>
       <c r="F43" s="25"/>
       <c r="G43" s="3"/>
@@ -2766,13 +2754,11 @@
       <c r="B44" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C44" s="48">
-        <v>2506.9899999999998</v>
-      </c>
+      <c r="C44" s="48"/>
       <c r="D44" s="49"/>
       <c r="E44" s="24">
         <f>C44*C10</f>
-        <v>2516.0151639999999</v>
+        <v>0</v>
       </c>
       <c r="F44" s="25"/>
       <c r="G44" s="3"/>
@@ -2801,13 +2787,11 @@
       <c r="B45" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="48">
-        <v>2507.19</v>
-      </c>
+      <c r="C45" s="48"/>
       <c r="D45" s="49"/>
       <c r="E45" s="26">
         <f>C45*C10</f>
-        <v>2516.2158840000002</v>
+        <v>0</v>
       </c>
       <c r="F45" s="25"/>
       <c r="G45" s="3"/>
@@ -2836,13 +2820,11 @@
       <c r="B46" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="48">
-        <v>2506.81</v>
-      </c>
+      <c r="C46" s="48"/>
       <c r="D46" s="49"/>
       <c r="E46" s="24">
         <f>C46*C10</f>
-        <v>2515.8345159999999</v>
+        <v>0</v>
       </c>
       <c r="F46" s="25"/>
       <c r="G46" s="3"/>
@@ -2871,13 +2853,11 @@
       <c r="B47" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="48">
-        <v>2510.7800000000002</v>
-      </c>
+      <c r="C47" s="48"/>
       <c r="D47" s="49"/>
       <c r="E47" s="24">
         <f>C47*C10</f>
-        <v>2519.8188080000004</v>
+        <v>0</v>
       </c>
       <c r="F47" s="25"/>
       <c r="G47" s="3"/>
@@ -2906,14 +2886,14 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="85">
+      <c r="C48" s="50" t="e">
         <f>AVERAGE(C38:D47)</f>
-        <v>2507.0219999999999</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D48" s="49"/>
       <c r="E48" s="26">
         <f>AVERAGE(E38:E47)</f>
-        <v>2516.0472792000005</v>
+        <v>0</v>
       </c>
       <c r="F48" s="25"/>
       <c r="G48" s="3"/>
@@ -2938,12 +2918,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -2969,10 +2949,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="53"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="49"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3002,9 +2982,9 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C51" s="55">
         <f>E48</f>
-        <v>2516.0472792000005</v>
+        <v>0</v>
       </c>
       <c r="D51" s="49"/>
       <c r="E51" s="3"/>
@@ -3035,9 +3015,9 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="52">
+      <c r="C52" s="53">
         <f>STDEV(E38:E47)</f>
-        <v>4.8571862266873564</v>
+        <v>0</v>
       </c>
       <c r="D52" s="49"/>
       <c r="E52" s="3"/>
@@ -3068,9 +3048,9 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="55">
+      <c r="C53" s="56">
         <f>ABS((100*(C51-E36)/E36))</f>
-        <v>0.64189116800002011</v>
+        <v>100</v>
       </c>
       <c r="D53" s="49"/>
       <c r="E53" s="3"/>
@@ -3101,9 +3081,9 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="86">
+      <c r="C54" s="57" t="e">
         <f>ABS((100*C52/C51))</f>
-        <v>0.19304828914946867</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D54" s="49"/>
       <c r="E54" s="3"/>
@@ -3134,7 +3114,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="58">
         <v>1.6</v>
       </c>
       <c r="D55" s="49"/>
@@ -3166,7 +3146,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="59">
         <v>0.6</v>
       </c>
       <c r="D56" s="49"/>
@@ -3198,9 +3178,9 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="52" t="str">
+      <c r="C57" s="53" t="e">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D57" s="49"/>
       <c r="E57" s="3"/>
@@ -3258,10 +3238,10 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="53"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="49"/>
       <c r="E59" s="8">
         <v>500</v>
@@ -3293,7 +3273,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="49"/>
@@ -3327,13 +3307,11 @@
       <c r="B61" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C61" s="48">
-        <v>501.82</v>
-      </c>
+      <c r="C61" s="48"/>
       <c r="D61" s="49"/>
       <c r="E61" s="24">
         <f>C61*C10</f>
-        <v>503.626552</v>
+        <v>0</v>
       </c>
       <c r="F61" s="25"/>
       <c r="G61" s="3"/>
@@ -3362,13 +3340,11 @@
       <c r="B62" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C62" s="48">
-        <v>502.31</v>
-      </c>
+      <c r="C62" s="48"/>
       <c r="D62" s="49"/>
       <c r="E62" s="24">
         <f>C62*C10</f>
-        <v>504.11831600000005</v>
+        <v>0</v>
       </c>
       <c r="F62" s="25"/>
       <c r="G62" s="3"/>
@@ -3397,13 +3373,11 @@
       <c r="B63" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="48">
-        <v>511.07</v>
-      </c>
+      <c r="C63" s="48"/>
       <c r="D63" s="49"/>
       <c r="E63" s="24">
         <f>C63*C10</f>
-        <v>512.909852</v>
+        <v>0</v>
       </c>
       <c r="F63" s="25"/>
       <c r="G63" s="3"/>
@@ -3432,13 +3406,11 @@
       <c r="B64" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C64" s="48">
-        <v>508.65</v>
-      </c>
+      <c r="C64" s="48"/>
       <c r="D64" s="49"/>
       <c r="E64" s="24">
         <f>C64*C10</f>
-        <v>510.48113999999998</v>
+        <v>0</v>
       </c>
       <c r="F64" s="25"/>
       <c r="G64" s="3"/>
@@ -3467,13 +3439,11 @@
       <c r="B65" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="48">
-        <v>508.2</v>
-      </c>
+      <c r="C65" s="48"/>
       <c r="D65" s="49"/>
       <c r="E65" s="24">
         <f>C65*C10</f>
-        <v>510.02951999999999</v>
+        <v>0</v>
       </c>
       <c r="F65" s="25"/>
       <c r="G65" s="3"/>
@@ -3502,13 +3472,11 @@
       <c r="B66" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="48">
-        <v>506.42</v>
-      </c>
+      <c r="C66" s="48"/>
       <c r="D66" s="49"/>
       <c r="E66" s="24">
         <f>C66*C10</f>
-        <v>508.24311200000005</v>
+        <v>0</v>
       </c>
       <c r="F66" s="25"/>
       <c r="G66" s="3"/>
@@ -3537,13 +3505,11 @@
       <c r="B67" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="C67" s="48">
-        <v>505.13</v>
-      </c>
+      <c r="C67" s="48"/>
       <c r="D67" s="49"/>
       <c r="E67" s="24">
         <f>C67*C10</f>
-        <v>506.94846799999999</v>
+        <v>0</v>
       </c>
       <c r="F67" s="25"/>
       <c r="G67" s="3"/>
@@ -3572,13 +3538,11 @@
       <c r="B68" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C68" s="48">
-        <v>504.17</v>
-      </c>
+      <c r="C68" s="48"/>
       <c r="D68" s="49"/>
       <c r="E68" s="24">
         <f>C68*C10</f>
-        <v>505.98501200000004</v>
+        <v>0</v>
       </c>
       <c r="F68" s="25"/>
       <c r="G68" s="3"/>
@@ -3607,13 +3571,11 @@
       <c r="B69" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="C69" s="48">
-        <v>506.87</v>
-      </c>
+      <c r="C69" s="48"/>
       <c r="D69" s="49"/>
       <c r="E69" s="24">
         <f>C69*C10</f>
-        <v>508.69473200000004</v>
+        <v>0</v>
       </c>
       <c r="F69" s="25"/>
       <c r="G69" s="3"/>
@@ -3642,13 +3604,11 @@
       <c r="B70" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="C70" s="48">
-        <v>503.2</v>
-      </c>
+      <c r="C70" s="48"/>
       <c r="D70" s="49"/>
       <c r="E70" s="24">
         <f>C70*C10</f>
-        <v>505.01152000000002</v>
+        <v>0</v>
       </c>
       <c r="F70" s="25"/>
       <c r="G70" s="3"/>
@@ -3677,14 +3637,14 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="85">
+      <c r="C71" s="50" t="e">
         <f>AVERAGE(C61:D70)</f>
-        <v>505.78399999999999</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D71" s="49"/>
       <c r="E71" s="24">
         <f>AVERAGE(E61:E70)</f>
-        <v>507.60482239999999</v>
+        <v>0</v>
       </c>
       <c r="F71" s="25"/>
       <c r="G71" s="3"/>
@@ -3740,10 +3700,10 @@
       <c r="A73" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C73" s="53"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="49"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3773,9 +3733,9 @@
       <c r="B74" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C74" s="54">
+      <c r="C74" s="55">
         <f>E71</f>
-        <v>507.60482239999999</v>
+        <v>0</v>
       </c>
       <c r="D74" s="49"/>
       <c r="E74" s="3"/>
@@ -3806,9 +3766,9 @@
       <c r="B75" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C75" s="54">
+      <c r="C75" s="55">
         <f>STDEV(E61:E70)</f>
-        <v>3.0120717015034653</v>
+        <v>0</v>
       </c>
       <c r="D75" s="49"/>
       <c r="E75" s="3"/>
@@ -3839,9 +3799,9 @@
       <c r="B76" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C76" s="55">
+      <c r="C76" s="56">
         <f>ABS((100*(C74-E59)/E59))</f>
-        <v>1.5209644799999977</v>
+        <v>100</v>
       </c>
       <c r="D76" s="49"/>
       <c r="E76" s="3"/>
@@ -3872,9 +3832,9 @@
       <c r="B77" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C77" s="55">
+      <c r="C77" s="56" t="e">
         <f>ABS((100*C75/C74))</f>
-        <v>0.593389102818631</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D77" s="49"/>
       <c r="E77" s="3"/>
@@ -3905,7 +3865,7 @@
       <c r="B78" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C78" s="50">
+      <c r="C78" s="58">
         <v>8</v>
       </c>
       <c r="D78" s="49"/>
@@ -3937,7 +3897,7 @@
       <c r="B79" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C79" s="51">
+      <c r="C79" s="59">
         <v>3</v>
       </c>
       <c r="D79" s="49"/>
@@ -3969,9 +3929,9 @@
       <c r="B80" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C80" s="52" t="str">
+      <c r="C80" s="53" t="e">
         <f>IF(AND(C77&lt;=C79,C76&lt;=C78),"PASS","FAIL")</f>
-        <v>PASS</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D80" s="49"/>
       <c r="E80" s="3"/>
@@ -4029,15 +3989,15 @@
       <c r="A82" s="10">
         <v>8</v>
       </c>
-      <c r="B82" s="84" t="s">
+      <c r="B82" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="78" t="s">
+      <c r="C82" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="73"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="62"/>
+      <c r="F82" s="63"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
@@ -4061,11 +4021,11 @@
     </row>
     <row r="83" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10"/>
-      <c r="B83" s="82"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
-      <c r="E83" s="60"/>
-      <c r="F83" s="75"/>
+      <c r="B83" s="70"/>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="65"/>
       <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
@@ -4089,11 +4049,11 @@
     </row>
     <row r="84" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10"/>
-      <c r="B84" s="83"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="77"/>
+      <c r="B84" s="71"/>
+      <c r="C84" s="67"/>
+      <c r="D84" s="67"/>
+      <c r="E84" s="67"/>
+      <c r="F84" s="68"/>
       <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
@@ -4144,15 +4104,15 @@
       <c r="Z85" s="3"/>
     </row>
     <row r="86" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="52" t="s">
+      <c r="A86" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B86" s="53"/>
+      <c r="B86" s="54"/>
       <c r="C86" s="49"/>
       <c r="D86" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E86" s="80" t="s">
+      <c r="E86" s="60" t="s">
         <v>48</v>
       </c>
       <c r="F86" s="49"/>
@@ -4178,18 +4138,18 @@
       <c r="Z86" s="3"/>
     </row>
     <row r="87" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="72" t="s">
+      <c r="A87" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B87" s="79"/>
-      <c r="C87" s="73"/>
-      <c r="D87" s="81" t="s">
+      <c r="B87" s="62"/>
+      <c r="C87" s="63"/>
+      <c r="D87" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="E87" s="72" t="s">
+      <c r="E87" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="F87" s="73"/>
+      <c r="F87" s="63"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -4212,12 +4172,12 @@
       <c r="Z87" s="3"/>
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="74"/>
-      <c r="B88" s="60"/>
-      <c r="C88" s="75"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="74"/>
-      <c r="F88" s="75"/>
+      <c r="A88" s="64"/>
+      <c r="B88" s="52"/>
+      <c r="C88" s="65"/>
+      <c r="D88" s="70"/>
+      <c r="E88" s="64"/>
+      <c r="F88" s="65"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -4240,12 +4200,12 @@
       <c r="Z88" s="3"/>
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="74"/>
-      <c r="B89" s="60"/>
-      <c r="C89" s="75"/>
-      <c r="D89" s="82"/>
-      <c r="E89" s="74"/>
-      <c r="F89" s="75"/>
+      <c r="A89" s="64"/>
+      <c r="B89" s="52"/>
+      <c r="C89" s="65"/>
+      <c r="D89" s="70"/>
+      <c r="E89" s="64"/>
+      <c r="F89" s="65"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -4268,12 +4228,12 @@
       <c r="Z89" s="3"/>
     </row>
     <row r="90" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="74"/>
-      <c r="B90" s="60"/>
-      <c r="C90" s="75"/>
-      <c r="D90" s="82"/>
-      <c r="E90" s="74"/>
-      <c r="F90" s="75"/>
+      <c r="A90" s="64"/>
+      <c r="B90" s="52"/>
+      <c r="C90" s="65"/>
+      <c r="D90" s="70"/>
+      <c r="E90" s="64"/>
+      <c r="F90" s="65"/>
       <c r="G90" s="3"/>
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
@@ -4296,12 +4256,12 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="74"/>
-      <c r="B91" s="60"/>
-      <c r="C91" s="75"/>
-      <c r="D91" s="82"/>
-      <c r="E91" s="74"/>
-      <c r="F91" s="75"/>
+      <c r="A91" s="64"/>
+      <c r="B91" s="52"/>
+      <c r="C91" s="65"/>
+      <c r="D91" s="70"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="65"/>
       <c r="G91" s="3"/>
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
@@ -4324,12 +4284,12 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="74"/>
-      <c r="B92" s="60"/>
-      <c r="C92" s="75"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="74"/>
-      <c r="F92" s="75"/>
+      <c r="A92" s="64"/>
+      <c r="B92" s="52"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="70"/>
+      <c r="E92" s="64"/>
+      <c r="F92" s="65"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -4352,12 +4312,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="74"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="75"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="65"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -4380,12 +4340,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="74"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="75"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="65"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -4408,12 +4368,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="76"/>
-      <c r="B95" s="62"/>
-      <c r="C95" s="77"/>
-      <c r="D95" s="83"/>
-      <c r="E95" s="76"/>
-      <c r="F95" s="77"/>
+      <c r="A95" s="66"/>
+      <c r="B95" s="67"/>
+      <c r="C95" s="68"/>
+      <c r="D95" s="71"/>
+      <c r="E95" s="66"/>
+      <c r="F95" s="68"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -29777,85 +29737,6 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="A87:C95"/>
-    <mergeCell ref="D87:D95"/>
-    <mergeCell ref="B82:B84"/>
-    <mergeCell ref="E87:F95"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C82:F84"/>
-    <mergeCell ref="E86:F86"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
     <mergeCell ref="C43:D43"/>
     <mergeCell ref="C44:D44"/>
     <mergeCell ref="C45:D45"/>
@@ -29865,6 +29746,85 @@
     <mergeCell ref="C40:D40"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E87:F95"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C82:F84"/>
+    <mergeCell ref="E86:F86"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="A87:C95"/>
+    <mergeCell ref="D87:D95"/>
+    <mergeCell ref="B82:B84"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29905,11 +29865,11 @@
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="C1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="60"/>
-      <c r="E1" s="70" t="s">
+      <c r="D1" s="52"/>
+      <c r="E1" s="75" t="s">
         <v>78</v>
       </c>
       <c r="F1" s="49"/>
@@ -29918,8 +29878,8 @@
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="60"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="52"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
@@ -29937,11 +29897,11 @@
     <row r="2" spans="1:26" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="60"/>
-      <c r="E2" s="70" t="s">
+      <c r="D2" s="52"/>
+      <c r="E2" s="75" t="s">
         <v>81</v>
       </c>
       <c r="F2" s="49"/>
@@ -29969,11 +29929,11 @@
     <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="68">
+      <c r="D3" s="52"/>
+      <c r="E3" s="77">
         <v>5000</v>
       </c>
       <c r="F3" s="49"/>
@@ -30005,12 +29965,12 @@
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="52"/>
+      <c r="F4" s="52"/>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
@@ -30039,11 +29999,11 @@
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="63">
+      <c r="D5" s="52"/>
+      <c r="E5" s="79">
         <v>21.3</v>
       </c>
       <c r="F5" s="49"/>
@@ -30071,11 +30031,11 @@
     <row r="6" spans="1:26" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="61" t="s">
+      <c r="C6" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63">
+      <c r="D6" s="67"/>
+      <c r="E6" s="79">
         <v>61.9</v>
       </c>
       <c r="F6" s="49"/>
@@ -30107,11 +30067,11 @@
       <c r="B7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="59">
         <v>22.209499999999998</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
       <c r="F7" s="49"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -30139,11 +30099,11 @@
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="51" t="s">
+      <c r="C8" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
       <c r="F8" s="49"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -30171,11 +30131,11 @@
       <c r="B9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="49"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -30203,12 +30163,12 @@
       <c r="B10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="84">
         <f>IF(C7="", "", IF(OR(ROUND(C7,1)&lt;14.75,ROUND(C7,1)&gt;=30.25),"Out of Range",IF(ROUND(C7,1)&lt;15.75,1.002,IF(ROUND(C7,1)&lt;16.25,1.0021,IF(ROUND(C7,1)&lt;16.75,1.0022,IF(ROUND(C7,1)&lt;17.25,1.0023,IF(ROUND(C7,1)&lt;17.75,1.0024,IF(ROUND(C7,1)&lt;18.25,1.0025,IF(ROUND(C7,1)&lt;18.75,1.0026,IF(ROUND(C7,1)&lt;19.25,1.0027,IF(ROUND(C7,1)&lt;19.75,1.0028,IF(ROUND(C7,1)&lt;20.25,1.0029,IF(ROUND(C7,1)&lt;20.75,1.003,IF(ROUND(C7,1)&lt;21.25,1.0031,IF(ROUND(C7,1)&lt;21.75,1.0032,IF(ROUND(C7,1)&lt;22.25,1.0033,IF(ROUND(C7,1)&lt;22.75,1.0034,IF(ROUND(C7,1)&lt;23.25,1.0035,IF(ROUND(C7,1)&lt;23.75,1.0036,IF(ROUND(C7,1)&lt;24.25,1.0038,IF(ROUND(C7,1)&lt;24.75,1.0039,IF(ROUND(C7,1)&lt;25.25,1.004,IF(ROUND(C7,1)&lt;25.75,1.0041,IF(ROUND(C7,1)&lt;26.25,1.0043,IF(ROUND(C7,1)&lt;26.75,1.0044,IF(ROUND(C7,1)&lt;27.25,1.0045,IF(ROUND(C7,1)&lt;27.75,1.0047,IF(ROUND(C7,1)&lt;28.25,1.0048,IF(ROUND(C7,1)&lt;28.75,1.005,IF(ROUND(C7,1)&lt;29.25,1.0051,IF(ROUND(C7,1)&lt;29.75,1.0052,IF(ROUND(C7,1)&lt;30.25,1.0054,"error"))))))))))))))))))))))))))))))))</f>
         <v>1.0033000000000001</v>
       </c>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
       <c r="F10" s="49"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -30232,12 +30192,12 @@
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="52"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
@@ -30263,10 +30223,10 @@
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="52" t="s">
+      <c r="B12" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="53"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="49"/>
       <c r="E12" s="31">
         <v>5000</v>
@@ -30298,7 +30258,7 @@
       <c r="B13" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D13" s="49"/>
@@ -30332,10 +30292,10 @@
       <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="87">
+      <c r="C14" s="89">
         <v>5009.7</v>
       </c>
-      <c r="D14" s="88"/>
+      <c r="D14" s="90"/>
       <c r="E14" s="15">
         <f>C14*C10</f>
         <v>5026.2320100000006</v>
@@ -30367,10 +30327,10 @@
       <c r="B15" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="87">
+      <c r="C15" s="89">
         <v>5003.3</v>
       </c>
-      <c r="D15" s="88"/>
+      <c r="D15" s="90"/>
       <c r="E15" s="15">
         <f>C15*C10</f>
         <v>5019.8108900000007</v>
@@ -30402,10 +30362,10 @@
       <c r="B16" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="87">
+      <c r="C16" s="89">
         <v>5003.8</v>
       </c>
-      <c r="D16" s="88"/>
+      <c r="D16" s="90"/>
       <c r="E16" s="15">
         <f>C16*C10</f>
         <v>5020.3125400000008</v>
@@ -30437,10 +30397,10 @@
       <c r="B17" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="87">
+      <c r="C17" s="89">
         <v>5001.8</v>
       </c>
-      <c r="D17" s="88"/>
+      <c r="D17" s="90"/>
       <c r="E17" s="15">
         <f>C17*C10</f>
         <v>5018.3059400000002</v>
@@ -30472,10 +30432,10 @@
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="87">
+      <c r="C18" s="89">
         <v>5003.8999999999996</v>
       </c>
-      <c r="D18" s="88"/>
+      <c r="D18" s="90"/>
       <c r="E18" s="15">
         <f>C18*C10</f>
         <v>5020.4128700000001</v>
@@ -30509,10 +30469,10 @@
       <c r="B19" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="87">
+      <c r="C19" s="89">
         <v>5000.5</v>
       </c>
-      <c r="D19" s="88"/>
+      <c r="D19" s="90"/>
       <c r="E19" s="15">
         <f>C19*C10</f>
         <v>5017.0016500000002</v>
@@ -30544,10 +30504,10 @@
       <c r="B20" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="87">
+      <c r="C20" s="89">
         <v>5005.3</v>
       </c>
-      <c r="D20" s="88"/>
+      <c r="D20" s="90"/>
       <c r="E20" s="15">
         <f>C20*C10</f>
         <v>5021.8174900000004</v>
@@ -30579,10 +30539,10 @@
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="87">
+      <c r="C21" s="89">
         <v>5004.6000000000004</v>
       </c>
-      <c r="D21" s="88"/>
+      <c r="D21" s="90"/>
       <c r="E21" s="15">
         <f>C21*C10</f>
         <v>5021.1151800000007</v>
@@ -30614,10 +30574,10 @@
       <c r="B22" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="87">
+      <c r="C22" s="89">
         <v>5009.3999999999996</v>
       </c>
-      <c r="D22" s="88"/>
+      <c r="D22" s="90"/>
       <c r="E22" s="15">
         <f>C22*C10</f>
         <v>5025.93102</v>
@@ -30649,10 +30609,10 @@
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C23" s="87">
+      <c r="C23" s="89">
         <v>5007.8</v>
       </c>
-      <c r="D23" s="88"/>
+      <c r="D23" s="90"/>
       <c r="E23" s="15">
         <f>C23*C10</f>
         <v>5024.3257400000002</v>
@@ -30684,7 +30644,7 @@
       <c r="B24" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="54">
+      <c r="C24" s="55">
         <f>AVERAGE(C14:D23)</f>
         <v>5005.01</v>
       </c>
@@ -30775,10 +30735,10 @@
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="49"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -30808,7 +30768,7 @@
       <c r="B28" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="54">
+      <c r="C28" s="55">
         <f>E24</f>
         <v>5021.5265330000011</v>
       </c>
@@ -30841,7 +30801,7 @@
       <c r="B29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C29" s="54">
+      <c r="C29" s="55">
         <f>STDEV(E14:E23)</f>
         <v>3.0936258347053909</v>
       </c>
@@ -30874,7 +30834,7 @@
       <c r="B30" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="55">
+      <c r="C30" s="56">
         <f>ABS((100*(C28-E12)/E12))</f>
         <v>0.43053066000002216</v>
       </c>
@@ -30907,7 +30867,7 @@
       <c r="B31" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="55">
+      <c r="C31" s="56">
         <f>ABS((100*C29/C28))</f>
         <v>6.1607278471496434E-2</v>
       </c>
@@ -30940,7 +30900,7 @@
       <c r="B32" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C32" s="50">
+      <c r="C32" s="58">
         <v>0.8</v>
       </c>
       <c r="D32" s="49"/>
@@ -30972,7 +30932,7 @@
       <c r="B33" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C33" s="51">
+      <c r="C33" s="59">
         <v>0.3</v>
       </c>
       <c r="D33" s="49"/>
@@ -31004,7 +30964,7 @@
       <c r="B34" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="52" t="str">
+      <c r="C34" s="53" t="str">
         <f>IF(AND(C31&lt;=C33,C30&lt;=C32),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31064,10 +31024,10 @@
       <c r="A36" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="53"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="49"/>
       <c r="E36" s="32">
         <v>2500</v>
@@ -31099,7 +31059,7 @@
       <c r="B37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="52" t="s">
+      <c r="C37" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D37" s="49"/>
@@ -31483,7 +31443,7 @@
       <c r="B48" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="85">
+      <c r="C48" s="50">
         <f>AVERAGE(C38:D47)</f>
         <v>2505.59</v>
       </c>
@@ -31515,12 +31475,12 @@
       <c r="Z48" s="3"/>
     </row>
     <row r="49" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="60"/>
-      <c r="F49" s="60"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
@@ -31546,10 +31506,10 @@
       <c r="A50" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C50" s="53"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="49"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -31579,7 +31539,7 @@
       <c r="B51" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C51" s="54">
+      <c r="C51" s="55">
         <f>E48</f>
         <v>2513.8584470000001</v>
       </c>
@@ -31612,7 +31572,7 @@
       <c r="B52" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C52" s="52">
+      <c r="C52" s="53">
         <f>STDEV(E38:E47)</f>
         <v>2.8910402817980909</v>
       </c>
@@ -31645,7 +31605,7 @@
       <c r="B53" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C53" s="55">
+      <c r="C53" s="56">
         <f>ABS((100*(C51-E36)/E36))</f>
         <v>0.55433788000000273</v>
       </c>
@@ -31678,7 +31638,7 @@
       <c r="B54" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="86">
+      <c r="C54" s="57">
         <f>ABS((100*C52/C51))</f>
         <v>0.1150040999821694</v>
       </c>
@@ -31711,7 +31671,7 @@
       <c r="B55" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="50">
+      <c r="C55" s="58">
         <v>1.6</v>
       </c>
       <c r="D55" s="49"/>
@@ -31743,7 +31703,7 @@
       <c r="B56" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C56" s="51">
+      <c r="C56" s="59">
         <v>0.6</v>
       </c>
       <c r="D56" s="49"/>
@@ -31775,7 +31735,7 @@
       <c r="B57" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C57" s="52" t="str">
+      <c r="C57" s="53" t="str">
         <f>IF(AND(C54&lt;=C56,C53&lt;=C55),"PASS","FAIL")</f>
         <v>PASS</v>
       </c>
@@ -31835,12 +31795,12 @@
       <c r="A59" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B59" s="80" t="s">
+      <c r="B59" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="C59" s="53"/>
+      <c r="C59" s="54"/>
       <c r="D59" s="49"/>
-      <c r="E59" s="90">
+      <c r="E59" s="87">
         <v>500</v>
       </c>
       <c r="F59" s="49"/>
@@ -31870,7 +31830,7 @@
       <c r="B60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C60" s="52" t="s">
+      <c r="C60" s="53" t="s">
         <v>16</v>
       </c>
       <c r="D60" s="49"/>
@@ -32286,7 +32246,7 @@
       <c r="B71" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="85">
+      <c r="C71" s="50">
         <f>AVERAGE(C61:D70)</f>
         <v>506.392</v>
       </c>
@@ -32352,10 +32312,10 @@
       <c r="A73" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B73" s="52" t="s">
+      <c r="B73" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="C73" s="53"/>
+      <c r="C73" s="54"/>
       <c r="D73" s="49"/>
       <c r="E73" s="7"/>
       <c r="F73" s="3"/>
@@ -32385,7 +32345,7 @@
       <c r="B74" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="C74" s="89"/>
+      <c r="C74" s="88"/>
       <c r="D74" s="49"/>
       <c r="E74" s="7"/>
       <c r="F74" s="3"/>
@@ -32415,7 +32375,7 @@
       <c r="B75" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C75" s="56"/>
+      <c r="C75" s="85"/>
       <c r="D75" s="49"/>
       <c r="E75" s="7"/>
       <c r="F75" s="3"/>
@@ -32445,7 +32405,7 @@
       <c r="B76" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C76" s="54">
+      <c r="C76" s="55">
         <f>C75*C10</f>
         <v>0</v>
       </c>
@@ -32478,7 +32438,7 @@
       <c r="B77" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C77" s="54">
+      <c r="C77" s="55">
         <f>ABS(E70-C76)/10</f>
         <v>50.938544300000004</v>
       </c>
@@ -32510,10 +32470,10 @@
       <c r="A78" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C78" s="53"/>
+      <c r="C78" s="54"/>
       <c r="D78" s="49"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
@@ -32543,7 +32503,7 @@
       <c r="B79" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C79" s="54">
+      <c r="C79" s="55">
         <f>F71</f>
         <v>559.00163790000011</v>
       </c>
@@ -32576,7 +32536,7 @@
       <c r="B80" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C80" s="54">
+      <c r="C80" s="55">
         <f>STDEV(F61:F70)</f>
         <v>1.6198163793828375</v>
       </c>
@@ -32609,7 +32569,7 @@
       <c r="B81" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="C81" s="55">
+      <c r="C81" s="56">
         <f>ABS((100*(C79-E59)/E59))</f>
         <v>11.800327580000021</v>
       </c>
@@ -32642,7 +32602,7 @@
       <c r="B82" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="C82" s="55">
+      <c r="C82" s="56">
         <f>ABS((100*C80/C79))</f>
         <v>0.28976952294236508</v>
       </c>
@@ -32675,7 +32635,7 @@
       <c r="B83" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C83" s="50">
+      <c r="C83" s="58">
         <v>8</v>
       </c>
       <c r="D83" s="49"/>
@@ -32707,7 +32667,7 @@
       <c r="B84" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C84" s="51">
+      <c r="C84" s="59">
         <v>3</v>
       </c>
       <c r="D84" s="49"/>
@@ -32739,7 +32699,7 @@
       <c r="B85" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C85" s="52" t="str">
+      <c r="C85" s="53" t="str">
         <f>IF(AND(C82&lt;=C84,C81&lt;=C83),"PASS","FAIL")</f>
         <v>FAIL</v>
       </c>
@@ -32799,15 +32759,15 @@
       <c r="A87" s="10">
         <v>8</v>
       </c>
-      <c r="B87" s="84" t="s">
+      <c r="B87" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="C87" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="D87" s="79"/>
-      <c r="E87" s="79"/>
-      <c r="F87" s="73"/>
+      <c r="D87" s="62"/>
+      <c r="E87" s="62"/>
+      <c r="F87" s="63"/>
       <c r="G87" s="3"/>
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
@@ -32831,11 +32791,11 @@
     </row>
     <row r="88" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="60"/>
-      <c r="D88" s="60"/>
-      <c r="E88" s="60"/>
-      <c r="F88" s="75"/>
+      <c r="B88" s="70"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="65"/>
       <c r="G88" s="3"/>
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
@@ -32859,11 +32819,11 @@
     </row>
     <row r="89" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
-      <c r="B89" s="83"/>
-      <c r="C89" s="62"/>
-      <c r="D89" s="62"/>
-      <c r="E89" s="62"/>
-      <c r="F89" s="77"/>
+      <c r="B89" s="71"/>
+      <c r="C89" s="67"/>
+      <c r="D89" s="67"/>
+      <c r="E89" s="67"/>
+      <c r="F89" s="68"/>
       <c r="G89" s="3"/>
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
@@ -32914,15 +32874,15 @@
       <c r="Z90" s="3"/>
     </row>
     <row r="91" spans="1:26" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="52" t="s">
+      <c r="A91" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="B91" s="53"/>
+      <c r="B91" s="54"/>
       <c r="C91" s="49"/>
       <c r="D91" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E91" s="80" t="s">
+      <c r="E91" s="60" t="s">
         <v>48</v>
       </c>
       <c r="F91" s="49"/>
@@ -32948,18 +32908,18 @@
       <c r="Z91" s="3"/>
     </row>
     <row r="92" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="72" t="s">
+      <c r="A92" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="B92" s="79"/>
-      <c r="C92" s="73"/>
-      <c r="D92" s="81" t="s">
+      <c r="B92" s="62"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="69" t="s">
         <v>50</v>
       </c>
-      <c r="E92" s="72" t="s">
+      <c r="E92" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="F92" s="73"/>
+      <c r="F92" s="63"/>
       <c r="G92" s="3"/>
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
@@ -32982,12 +32942,12 @@
       <c r="Z92" s="3"/>
     </row>
     <row r="93" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="74"/>
-      <c r="B93" s="60"/>
-      <c r="C93" s="75"/>
-      <c r="D93" s="82"/>
-      <c r="E93" s="74"/>
-      <c r="F93" s="75"/>
+      <c r="A93" s="64"/>
+      <c r="B93" s="52"/>
+      <c r="C93" s="65"/>
+      <c r="D93" s="70"/>
+      <c r="E93" s="64"/>
+      <c r="F93" s="65"/>
       <c r="G93" s="3"/>
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
@@ -33010,12 +32970,12 @@
       <c r="Z93" s="3"/>
     </row>
     <row r="94" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="74"/>
-      <c r="B94" s="60"/>
-      <c r="C94" s="75"/>
-      <c r="D94" s="82"/>
-      <c r="E94" s="74"/>
-      <c r="F94" s="75"/>
+      <c r="A94" s="64"/>
+      <c r="B94" s="52"/>
+      <c r="C94" s="65"/>
+      <c r="D94" s="70"/>
+      <c r="E94" s="64"/>
+      <c r="F94" s="65"/>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
@@ -33038,12 +32998,12 @@
       <c r="Z94" s="3"/>
     </row>
     <row r="95" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="74"/>
-      <c r="B95" s="60"/>
-      <c r="C95" s="75"/>
-      <c r="D95" s="82"/>
-      <c r="E95" s="74"/>
-      <c r="F95" s="75"/>
+      <c r="A95" s="64"/>
+      <c r="B95" s="52"/>
+      <c r="C95" s="65"/>
+      <c r="D95" s="70"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="65"/>
       <c r="G95" s="3"/>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
@@ -33066,12 +33026,12 @@
       <c r="Z95" s="3"/>
     </row>
     <row r="96" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="74"/>
-      <c r="B96" s="60"/>
-      <c r="C96" s="75"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="74"/>
-      <c r="F96" s="75"/>
+      <c r="A96" s="64"/>
+      <c r="B96" s="52"/>
+      <c r="C96" s="65"/>
+      <c r="D96" s="70"/>
+      <c r="E96" s="64"/>
+      <c r="F96" s="65"/>
       <c r="G96" s="3"/>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
@@ -33094,12 +33054,12 @@
       <c r="Z96" s="3"/>
     </row>
     <row r="97" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="74"/>
-      <c r="B97" s="60"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="82"/>
-      <c r="E97" s="74"/>
-      <c r="F97" s="75"/>
+      <c r="A97" s="64"/>
+      <c r="B97" s="52"/>
+      <c r="C97" s="65"/>
+      <c r="D97" s="70"/>
+      <c r="E97" s="64"/>
+      <c r="F97" s="65"/>
       <c r="G97" s="3"/>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
@@ -33122,12 +33082,12 @@
       <c r="Z97" s="3"/>
     </row>
     <row r="98" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="74"/>
-      <c r="B98" s="60"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="74"/>
-      <c r="F98" s="75"/>
+      <c r="A98" s="64"/>
+      <c r="B98" s="52"/>
+      <c r="C98" s="65"/>
+      <c r="D98" s="70"/>
+      <c r="E98" s="64"/>
+      <c r="F98" s="65"/>
       <c r="G98" s="3"/>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
@@ -33150,12 +33110,12 @@
       <c r="Z98" s="3"/>
     </row>
     <row r="99" spans="1:26" ht="12.75" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="74"/>
-      <c r="B99" s="60"/>
-      <c r="C99" s="75"/>
-      <c r="D99" s="82"/>
-      <c r="E99" s="74"/>
-      <c r="F99" s="75"/>
+      <c r="A99" s="64"/>
+      <c r="B99" s="52"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="64"/>
+      <c r="F99" s="65"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
@@ -33178,12 +33138,12 @@
       <c r="Z99" s="3"/>
     </row>
     <row r="100" spans="1:26" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="76"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="77"/>
-      <c r="D100" s="83"/>
-      <c r="E100" s="76"/>
-      <c r="F100" s="77"/>
+      <c r="A100" s="66"/>
+      <c r="B100" s="67"/>
+      <c r="C100" s="68"/>
+      <c r="D100" s="71"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="68"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
@@ -58407,41 +58367,55 @@
     </row>
   </sheetData>
   <mergeCells count="94">
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:F49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C53:D53"/>
-    <mergeCell ref="C54:D54"/>
-    <mergeCell ref="C55:D55"/>
-    <mergeCell ref="C56:D56"/>
-    <mergeCell ref="C57:D57"/>
-    <mergeCell ref="B59:D59"/>
-    <mergeCell ref="E59:F59"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="C61:D61"/>
-    <mergeCell ref="C62:D62"/>
-    <mergeCell ref="C63:D63"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C66:D66"/>
-    <mergeCell ref="C67:D67"/>
-    <mergeCell ref="C68:D68"/>
-    <mergeCell ref="C69:D69"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C71:D71"/>
-    <mergeCell ref="B73:D73"/>
-    <mergeCell ref="C74:D74"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="B78:D78"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C80:D80"/>
-    <mergeCell ref="C81:D81"/>
-    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C39:D39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A92:C100"/>
     <mergeCell ref="D92:D100"/>
     <mergeCell ref="E92:F100"/>
@@ -58452,55 +58426,41 @@
     <mergeCell ref="C87:F89"/>
     <mergeCell ref="A91:C91"/>
     <mergeCell ref="E91:F91"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C39:D39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="B78:D78"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C80:D80"/>
+    <mergeCell ref="C81:D81"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="C74:D74"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="C67:D67"/>
+    <mergeCell ref="C68:D68"/>
+    <mergeCell ref="C69:D69"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="C71:D71"/>
+    <mergeCell ref="C62:D62"/>
+    <mergeCell ref="C63:D63"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C66:D66"/>
+    <mergeCell ref="C57:D57"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="E59:F59"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="C61:D61"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C53:D53"/>
+    <mergeCell ref="C54:D54"/>
+    <mergeCell ref="C55:D55"/>
+    <mergeCell ref="C56:D56"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="C51:D51"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.94488188976377963" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -59804,7 +59764,7 @@
       <c r="B16" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="60"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="43"/>
       <c r="E16" s="44" t="s">
         <v>69</v>
@@ -59819,7 +59779,7 @@
       <c r="B18" s="95" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="43"/>
       <c r="E18" s="44" t="s">
         <v>69</v>
@@ -59834,7 +59794,7 @@
       <c r="B20" s="95" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="60"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="46"/>
       <c r="E20" s="41" t="s">
         <v>72</v>
@@ -59844,14 +59804,14 @@
       <c r="B21" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="52"/>
     </row>
     <row r="22" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="95" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="47" t="e">
         <f>D16/D18*D20</f>
         <v>#DIV/0!</v>
@@ -59864,13 +59824,13 @@
       <c r="B24" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="60"/>
+      <c r="C24" s="52"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="52"/>
     </row>
     <row r="26" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
